--- a/docs/Arbeitsrapport.xlsx
+++ b/docs/Arbeitsrapport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brtoz\Codes\IPT5.1\IPT5.1_Stundenplaner-Projekt\docx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brtoz\Codes\IPT5.1\IPT5.1_Stundenplaner-Projekt\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDFF853-B87E-43A5-9A3C-A945D150BBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E59B58-D1D2-4855-9963-10AE9F97906F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t>Datum</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>Arbeitsrapport Erweiterung</t>
+  </si>
+  <si>
+    <t>Fehler</t>
+  </si>
+  <si>
+    <t>Problem beim Pushen</t>
   </si>
 </sst>
 </file>
@@ -492,48 +498,48 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -756,8 +762,8 @@
   </sheetPr>
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1"/>
@@ -847,17 +853,17 @@
     <row r="17" spans="1:12" ht="32.25" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="31"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="31"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="8" t="s">
         <v>7</v>
       </c>
@@ -873,17 +879,17 @@
     <row r="18" spans="1:12" ht="32.25" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="32">
+      <c r="C18" s="33">
         <v>45953</v>
       </c>
-      <c r="D18" s="33"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="35"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="9">
         <v>30</v>
       </c>
@@ -899,17 +905,17 @@
     <row r="19" spans="1:12" ht="32.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="24">
+      <c r="C19" s="27">
         <v>45953</v>
       </c>
-      <c r="D19" s="25"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="29"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="11">
         <v>30</v>
       </c>
@@ -923,17 +929,17 @@
     <row r="20" spans="1:12" ht="32.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="24">
+      <c r="C20" s="27">
         <v>45953</v>
       </c>
-      <c r="D20" s="25"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="29"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="11">
         <v>150</v>
       </c>
@@ -947,17 +953,17 @@
     <row r="21" spans="1:12" ht="32.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="24">
+      <c r="C21" s="27">
         <v>45953</v>
       </c>
-      <c r="D21" s="25"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="11">
         <v>15</v>
       </c>
@@ -973,17 +979,17 @@
     <row r="22" spans="1:12" ht="32.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="24">
+      <c r="C22" s="27">
         <v>45953</v>
       </c>
-      <c r="D22" s="25"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="11">
         <v>120</v>
       </c>
@@ -997,17 +1003,17 @@
     <row r="23" spans="1:12" ht="32.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="24">
+      <c r="C23" s="27">
         <v>45956</v>
       </c>
-      <c r="D23" s="25"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="11">
         <v>120</v>
       </c>
@@ -1023,17 +1029,17 @@
     <row r="24" spans="1:12" ht="32.25" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="24">
+      <c r="C24" s="27">
         <v>45959</v>
       </c>
-      <c r="D24" s="25"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="11">
         <v>90</v>
       </c>
@@ -1049,17 +1055,17 @@
     <row r="25" spans="1:12" ht="32.25" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="24">
+      <c r="C25" s="27">
         <v>45960</v>
       </c>
-      <c r="D25" s="36"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="36"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="11">
         <v>30</v>
       </c>
@@ -1075,17 +1081,17 @@
     <row r="26" spans="1:12" ht="32.25" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="24">
+      <c r="C26" s="27">
         <v>45960</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="29"/>
+      <c r="G26" s="31"/>
       <c r="H26" s="11">
         <v>180</v>
       </c>
@@ -1099,17 +1105,17 @@
     <row r="27" spans="1:12" ht="76.8" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="24">
+      <c r="C27" s="27">
         <v>45960</v>
       </c>
-      <c r="D27" s="25"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="29"/>
+      <c r="G27" s="31"/>
       <c r="H27" s="11">
         <v>30</v>
       </c>
@@ -1125,10 +1131,10 @@
     <row r="28" spans="1:12" ht="34.200000000000003" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="26">
+      <c r="C28" s="25">
         <v>45960</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="13" t="s">
         <v>10</v>
       </c>
@@ -1149,17 +1155,17 @@
     <row r="29" spans="1:12" ht="72" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="24">
+      <c r="C29" s="27">
         <v>45960</v>
       </c>
-      <c r="D29" s="25"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="31"/>
       <c r="H29" s="13">
         <v>30</v>
       </c>
@@ -1175,17 +1181,17 @@
     <row r="30" spans="1:12" ht="32.25" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="26">
+      <c r="C30" s="25">
         <v>45960</v>
       </c>
-      <c r="D30" s="27"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="27"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="13">
         <v>10</v>
       </c>
@@ -1199,17 +1205,17 @@
     <row r="31" spans="1:12" ht="32.25" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="26">
+      <c r="C31" s="25">
         <v>45961</v>
       </c>
-      <c r="D31" s="27"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="27"/>
+      <c r="G31" s="24"/>
       <c r="H31" s="13">
         <v>30</v>
       </c>
@@ -1221,17 +1227,17 @@
     <row r="32" spans="1:12" ht="32.25" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="26">
+      <c r="C32" s="25">
         <v>45961</v>
       </c>
-      <c r="D32" s="27"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="27"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="13">
         <v>10</v>
       </c>
@@ -1245,17 +1251,17 @@
     <row r="33" spans="1:12" ht="32.25" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="26">
+      <c r="C33" s="25">
         <v>45965</v>
       </c>
-      <c r="D33" s="27"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="27"/>
+      <c r="G33" s="24"/>
       <c r="H33" s="13">
         <v>150</v>
       </c>
@@ -1271,17 +1277,17 @@
     <row r="34" spans="1:12" ht="32.25" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="26">
+      <c r="C34" s="25">
         <v>45966</v>
       </c>
-      <c r="D34" s="27"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="27"/>
+      <c r="G34" s="24"/>
       <c r="H34" s="13">
         <v>120</v>
       </c>
@@ -1297,17 +1303,17 @@
     <row r="35" spans="1:12" ht="32.25" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="26">
+      <c r="C35" s="25">
         <v>45967</v>
       </c>
-      <c r="D35" s="27"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="27"/>
+      <c r="G35" s="24"/>
       <c r="H35" s="13">
         <v>20</v>
       </c>
@@ -1323,17 +1329,17 @@
     <row r="36" spans="1:12" ht="32.25" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="26">
+      <c r="C36" s="25">
         <v>45967</v>
       </c>
-      <c r="D36" s="27"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="27"/>
+      <c r="G36" s="24"/>
       <c r="H36" s="13">
         <v>30</v>
       </c>
@@ -1347,17 +1353,17 @@
     <row r="37" spans="1:12" ht="32.25" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="26">
+      <c r="C37" s="25">
         <v>45967</v>
       </c>
-      <c r="D37" s="27"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G37" s="27"/>
+      <c r="G37" s="24"/>
       <c r="H37" s="13"/>
       <c r="I37" s="14" t="s">
         <v>8</v>
@@ -1369,17 +1375,17 @@
     <row r="38" spans="1:12" ht="32.25" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="26">
+      <c r="C38" s="25">
         <v>45967</v>
       </c>
-      <c r="D38" s="27"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="27"/>
+      <c r="G38" s="24"/>
       <c r="H38" s="13">
         <v>30</v>
       </c>
@@ -1391,17 +1397,17 @@
     <row r="39" spans="1:12" ht="32.25" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="26">
+      <c r="C39" s="25">
         <v>45967</v>
       </c>
-      <c r="D39" s="27"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G39" s="27"/>
+      <c r="G39" s="24"/>
       <c r="H39" s="13">
         <v>30</v>
       </c>
@@ -1415,35 +1421,37 @@
     <row r="40" spans="1:12" ht="32.25" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="26">
+      <c r="C40" s="25">
         <v>45967</v>
       </c>
-      <c r="D40" s="27"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="30" t="s">
+      <c r="F40" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="27"/>
+      <c r="G40" s="24"/>
       <c r="H40" s="13">
         <v>30</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J40" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="K40" s="7"/>
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" ht="32.25" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="27"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="13"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="27"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
       <c r="H41" s="13"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
@@ -1453,11 +1461,11 @@
     <row r="42" spans="1:12" ht="32.25" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="27"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="24"/>
       <c r="E42" s="13"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="27"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="24"/>
       <c r="H42" s="13"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
@@ -1467,11 +1475,11 @@
     <row r="43" spans="1:12" ht="32.25" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="27"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="13"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="27"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="24"/>
       <c r="H43" s="13"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
@@ -1481,11 +1489,11 @@
     <row r="44" spans="1:12" ht="32.25" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="27"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="13"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="27"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
       <c r="H44" s="13"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
@@ -1495,11 +1503,11 @@
     <row r="45" spans="1:12" ht="32.25" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="13"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="27"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="24"/>
       <c r="H45" s="13"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
@@ -1509,17 +1517,17 @@
     <row r="46" spans="1:12" ht="32.25" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="26">
+      <c r="C46" s="25">
         <v>45967</v>
       </c>
-      <c r="D46" s="27"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="30" t="s">
+      <c r="F46" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G46" s="27"/>
+      <c r="G46" s="24"/>
       <c r="H46" s="13"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
@@ -1529,11 +1537,11 @@
     <row r="47" spans="1:12" ht="32.25" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="27"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="24"/>
       <c r="E47" s="13"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="38"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="26"/>
       <c r="H47" s="13"/>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
@@ -1579,11 +1587,11 @@
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
       <c r="F51" s="19"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -1608,18 +1616,40 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="F36:G36"/>
@@ -1636,40 +1666,18 @@
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F43:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/Arbeitsrapport.xlsx
+++ b/docs/Arbeitsrapport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brtoz\Codes\IPT5.1\IPT5.1_Stundenplaner-Projekt\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brtoz\Codes\IPT5.1\Stundenplaner-Projekt\IPT5.1_Stundenplaner-Projekt\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC402C4D-4879-4540-BF43-2CEA74FF6D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813C3772-14D3-4B35-BF33-A9065B3833B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
   <si>
     <t>Datum</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>Code Klasse: Datamanager</t>
+  </si>
+  <si>
+    <t>Fehler beim pushen. Sanjivan hat für Berat gepusht und commited</t>
+  </si>
+  <si>
+    <t>Benutzeranleitung</t>
   </si>
 </sst>
 </file>
@@ -535,48 +541,48 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -799,8 +805,8 @@
   </sheetPr>
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1"/>
@@ -890,17 +896,17 @@
     <row r="17" spans="1:12" ht="32.25" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="35"/>
+      <c r="G17" s="36"/>
       <c r="H17" s="8" t="s">
         <v>7</v>
       </c>
@@ -916,17 +922,17 @@
     <row r="18" spans="1:12" ht="32.25" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="36">
+      <c r="C18" s="37">
         <v>45953</v>
       </c>
-      <c r="D18" s="37"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="39"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="9">
         <v>30</v>
       </c>
@@ -942,17 +948,17 @@
     <row r="19" spans="1:12" ht="32.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="28">
+      <c r="C19" s="27">
         <v>45953</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="34"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="11">
         <v>30</v>
       </c>
@@ -966,17 +972,17 @@
     <row r="20" spans="1:12" ht="32.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="28">
+      <c r="C20" s="27">
         <v>45953</v>
       </c>
-      <c r="D20" s="29"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="34"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="11">
         <v>150</v>
       </c>
@@ -990,17 +996,17 @@
     <row r="21" spans="1:12" ht="32.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="28">
+      <c r="C21" s="27">
         <v>45953</v>
       </c>
-      <c r="D21" s="29"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="34"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="11">
         <v>15</v>
       </c>
@@ -1016,17 +1022,17 @@
     <row r="22" spans="1:12" ht="32.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="28">
+      <c r="C22" s="27">
         <v>45953</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="34"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="11">
         <v>120</v>
       </c>
@@ -1040,17 +1046,17 @@
     <row r="23" spans="1:12" ht="32.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="28">
+      <c r="C23" s="27">
         <v>45956</v>
       </c>
-      <c r="D23" s="29"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="34"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="11">
         <v>120</v>
       </c>
@@ -1066,17 +1072,17 @@
     <row r="24" spans="1:12" ht="32.25" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="28">
+      <c r="C24" s="27">
         <v>45959</v>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="34"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="11">
         <v>90</v>
       </c>
@@ -1092,17 +1098,17 @@
     <row r="25" spans="1:12" ht="32.25" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="28">
+      <c r="C25" s="27">
         <v>45960</v>
       </c>
-      <c r="D25" s="32"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="32"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="11">
         <v>30</v>
       </c>
@@ -1118,17 +1124,17 @@
     <row r="26" spans="1:12" ht="32.25" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="28">
+      <c r="C26" s="27">
         <v>45960</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="34"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="11">
         <v>180</v>
       </c>
@@ -1142,17 +1148,17 @@
     <row r="27" spans="1:12" ht="76.8" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="28">
+      <c r="C27" s="27">
         <v>45960</v>
       </c>
-      <c r="D27" s="29"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="34"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="11">
         <v>30</v>
       </c>
@@ -1168,10 +1174,10 @@
     <row r="28" spans="1:12" ht="34.200000000000003" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="30">
+      <c r="C28" s="31">
         <v>45960</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="13" t="s">
         <v>10</v>
       </c>
@@ -1192,17 +1198,17 @@
     <row r="29" spans="1:12" ht="72" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="28">
+      <c r="C29" s="27">
         <v>45960</v>
       </c>
-      <c r="D29" s="29"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="34"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="13">
         <v>30</v>
       </c>
@@ -1218,17 +1224,17 @@
     <row r="30" spans="1:12" ht="32.25" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="30">
+      <c r="C30" s="31">
         <v>45960</v>
       </c>
-      <c r="D30" s="27"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="27"/>
+      <c r="G30" s="32"/>
       <c r="H30" s="13">
         <v>10</v>
       </c>
@@ -1242,21 +1248,23 @@
     <row r="31" spans="1:12" ht="32.25" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="30">
+      <c r="C31" s="31">
         <v>45961</v>
       </c>
-      <c r="D31" s="27"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="27"/>
+      <c r="G31" s="32"/>
       <c r="H31" s="13">
         <v>30</v>
       </c>
-      <c r="I31" s="14"/>
+      <c r="I31" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="J31" s="14"/>
       <c r="K31" s="7"/>
       <c r="L31" s="1"/>
@@ -1264,17 +1272,17 @@
     <row r="32" spans="1:12" ht="32.25" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="30">
+      <c r="C32" s="31">
         <v>45961</v>
       </c>
-      <c r="D32" s="27"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="27"/>
+      <c r="G32" s="32"/>
       <c r="H32" s="13">
         <v>10</v>
       </c>
@@ -1288,17 +1296,17 @@
     <row r="33" spans="1:12" ht="32.25" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="30">
+      <c r="C33" s="31">
         <v>45965</v>
       </c>
-      <c r="D33" s="27"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="27"/>
+      <c r="G33" s="32"/>
       <c r="H33" s="13">
         <v>150</v>
       </c>
@@ -1314,17 +1322,17 @@
     <row r="34" spans="1:12" ht="32.25" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="30">
+      <c r="C34" s="31">
         <v>45966</v>
       </c>
-      <c r="D34" s="27"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="27"/>
+      <c r="G34" s="32"/>
       <c r="H34" s="13">
         <v>120</v>
       </c>
@@ -1340,17 +1348,17 @@
     <row r="35" spans="1:12" ht="32.25" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="30">
+      <c r="C35" s="31">
         <v>45967</v>
       </c>
-      <c r="D35" s="27"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="27"/>
+      <c r="G35" s="32"/>
       <c r="H35" s="13">
         <v>20</v>
       </c>
@@ -1366,17 +1374,17 @@
     <row r="36" spans="1:12" ht="32.25" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="30">
+      <c r="C36" s="31">
         <v>45967</v>
       </c>
-      <c r="D36" s="27"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="27"/>
+      <c r="G36" s="32"/>
       <c r="H36" s="13">
         <v>30</v>
       </c>
@@ -1390,18 +1398,20 @@
     <row r="37" spans="1:12" ht="32.25" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="30">
+      <c r="C37" s="31">
         <v>45967</v>
       </c>
-      <c r="D37" s="27"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G37" s="27"/>
-      <c r="H37" s="13"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="13">
+        <v>60</v>
+      </c>
       <c r="I37" s="14" t="s">
         <v>8</v>
       </c>
@@ -1412,21 +1422,23 @@
     <row r="38" spans="1:12" ht="32.25" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="30">
+      <c r="C38" s="31">
         <v>45967</v>
       </c>
-      <c r="D38" s="27"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="27"/>
+      <c r="G38" s="32"/>
       <c r="H38" s="13">
         <v>30</v>
       </c>
-      <c r="I38" s="14"/>
+      <c r="I38" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="J38" s="14"/>
       <c r="K38" s="7"/>
       <c r="L38" s="1"/>
@@ -1434,17 +1446,17 @@
     <row r="39" spans="1:12" ht="32.25" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="30">
+      <c r="C39" s="31">
         <v>45967</v>
       </c>
-      <c r="D39" s="27"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G39" s="27"/>
+      <c r="G39" s="32"/>
       <c r="H39" s="13">
         <v>30</v>
       </c>
@@ -1458,17 +1470,17 @@
     <row r="40" spans="1:12" ht="32.25" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="30">
+      <c r="C40" s="31">
         <v>45967</v>
       </c>
-      <c r="D40" s="27"/>
+      <c r="D40" s="32"/>
       <c r="E40" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="27"/>
+      <c r="G40" s="32"/>
       <c r="H40" s="13">
         <v>30</v>
       </c>
@@ -1484,17 +1496,17 @@
     <row r="41" spans="1:12" ht="32.25" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="30">
+      <c r="C41" s="31">
         <v>45973</v>
       </c>
-      <c r="D41" s="27"/>
+      <c r="D41" s="32"/>
       <c r="E41" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="G41" s="27"/>
+      <c r="G41" s="32"/>
       <c r="H41" s="13">
         <v>120</v>
       </c>
@@ -1507,7 +1519,7 @@
       <c r="K41" s="7"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" ht="32.25" customHeight="1">
+    <row r="42" spans="1:12" ht="19.2" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="5"/>
       <c r="C42" s="23"/>
@@ -1526,17 +1538,17 @@
     <row r="43" spans="1:12" ht="32.25" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="30">
+      <c r="C43" s="31">
         <v>45974</v>
       </c>
-      <c r="D43" s="27"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="27"/>
+      <c r="G43" s="32"/>
       <c r="H43" s="13">
         <v>30</v>
       </c>
@@ -1550,20 +1562,22 @@
     <row r="44" spans="1:12" ht="32.25" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="30">
+      <c r="C44" s="31">
         <v>45974</v>
       </c>
-      <c r="D44" s="27"/>
+      <c r="D44" s="32"/>
       <c r="E44" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G44" s="27"/>
-      <c r="H44" s="13"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="13">
+        <v>60</v>
+      </c>
       <c r="I44" s="14" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="J44" s="14"/>
       <c r="K44" s="7"/>
@@ -1572,64 +1586,72 @@
     <row r="45" spans="1:12" ht="32.25" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="28">
+      <c r="C45" s="27">
         <v>45974</v>
       </c>
-      <c r="D45" s="29"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="G45" s="27"/>
-      <c r="H45" s="13"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="13">
+        <v>30</v>
+      </c>
       <c r="I45" s="14" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="J45" s="14"/>
       <c r="K45" s="7"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12" ht="32.25" customHeight="1">
+    <row r="46" spans="1:12" ht="50.4" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="28">
+      <c r="C46" s="27">
         <v>45974</v>
       </c>
-      <c r="D46" s="29"/>
+      <c r="D46" s="28"/>
       <c r="E46" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="26" t="s">
+      <c r="F46" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="G46" s="27"/>
-      <c r="H46" s="13"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="13">
+        <v>30</v>
+      </c>
       <c r="I46" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J46" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="K46" s="7"/>
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" ht="32.25" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="28">
+      <c r="C47" s="27">
         <v>45974</v>
       </c>
-      <c r="D47" s="29"/>
+      <c r="D47" s="28"/>
       <c r="E47" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F47" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="G47" s="27"/>
-      <c r="H47" s="13"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="13">
+        <v>20</v>
+      </c>
       <c r="I47" s="14" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="J47" s="14"/>
       <c r="K47" s="7"/>
@@ -1638,11 +1660,11 @@
     <row r="48" spans="1:12" ht="32.25" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="28"/>
       <c r="E48" s="13"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="32"/>
       <c r="H48" s="13"/>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
@@ -1652,11 +1674,11 @@
     <row r="49" spans="1:12" ht="32.25" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="29"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="28"/>
       <c r="E49" s="13"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="27"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="32"/>
       <c r="H49" s="13"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
@@ -1666,13 +1688,21 @@
     <row r="50" spans="1:12" ht="32.25" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="27"/>
+      <c r="C50" s="27">
+        <v>45981</v>
+      </c>
+      <c r="D50" s="28"/>
+      <c r="E50" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="32"/>
       <c r="H50" s="13"/>
-      <c r="I50" s="14"/>
+      <c r="I50" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="J50" s="14"/>
       <c r="K50" s="7"/>
       <c r="L50" s="1"/>
@@ -1680,11 +1710,11 @@
     <row r="51" spans="1:12" ht="32.25" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="29"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="28"/>
       <c r="E51" s="13"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="27"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="32"/>
       <c r="H51" s="13"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
@@ -1694,11 +1724,11 @@
     <row r="52" spans="1:12" ht="32.25" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="29"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="28"/>
       <c r="E52" s="13"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="27"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="32"/>
       <c r="H52" s="13"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
@@ -1708,11 +1738,11 @@
     <row r="53" spans="1:12" ht="32.25" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="29"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="28"/>
       <c r="E53" s="13"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="27"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="32"/>
       <c r="H53" s="13"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
@@ -1722,11 +1752,11 @@
     <row r="54" spans="1:12" ht="32.25" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="29"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="28"/>
       <c r="E54" s="13"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="27"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="32"/>
       <c r="H54" s="13"/>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
@@ -1736,11 +1766,11 @@
     <row r="55" spans="1:12" ht="32.25" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="29"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="28"/>
       <c r="E55" s="13"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="27"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="32"/>
       <c r="H55" s="13"/>
       <c r="I55" s="14"/>
       <c r="J55" s="14"/>
@@ -1750,11 +1780,11 @@
     <row r="56" spans="1:12" ht="32.25" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="29"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="28"/>
       <c r="E56" s="13"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="27"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="32"/>
       <c r="H56" s="13"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14"/>
@@ -1764,11 +1794,11 @@
     <row r="57" spans="1:12" ht="32.25" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="29"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="28"/>
       <c r="E57" s="13"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="27"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="32"/>
       <c r="H57" s="13"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
@@ -1778,11 +1808,11 @@
     <row r="58" spans="1:12" ht="32.25" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="5"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="29"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="28"/>
       <c r="E58" s="13"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="27"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="32"/>
       <c r="H58" s="13"/>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
@@ -1792,11 +1822,11 @@
     <row r="59" spans="1:12" ht="32.25" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="29"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="28"/>
       <c r="E59" s="13"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="27"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="32"/>
       <c r="H59" s="13"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
@@ -1806,11 +1836,11 @@
     <row r="60" spans="1:12" ht="32.25" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="5"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="29"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="28"/>
       <c r="E60" s="13"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="27"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="32"/>
       <c r="H60" s="13"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
@@ -1820,11 +1850,11 @@
     <row r="61" spans="1:12" ht="32.25" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="5"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="29"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
       <c r="E61" s="13"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="27"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="32"/>
       <c r="H61" s="13"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
@@ -1834,11 +1864,11 @@
     <row r="62" spans="1:12" ht="32.25" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="5"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="29"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="28"/>
       <c r="E62" s="13"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="27"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="32"/>
       <c r="H62" s="13"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
@@ -1848,11 +1878,11 @@
     <row r="63" spans="1:12" ht="32.25" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="29"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="28"/>
       <c r="E63" s="13"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="27"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="32"/>
       <c r="H63" s="13"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
@@ -1862,11 +1892,11 @@
     <row r="64" spans="1:12" ht="32.25" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="29"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="28"/>
       <c r="E64" s="13"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="27"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="32"/>
       <c r="H64" s="13"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
@@ -1876,11 +1906,11 @@
     <row r="65" spans="1:12" ht="32.25" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="29"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="28"/>
       <c r="E65" s="13"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="27"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="32"/>
       <c r="H65" s="13"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
@@ -1890,11 +1920,11 @@
     <row r="66" spans="1:12" ht="32.25" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="5"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="29"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="28"/>
       <c r="E66" s="13"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="27"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="32"/>
       <c r="H66" s="13"/>
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
@@ -1904,11 +1934,11 @@
     <row r="67" spans="1:12" ht="32.25" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="29"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="28"/>
       <c r="E67" s="13"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="27"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="32"/>
       <c r="H67" s="13"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
@@ -1918,11 +1948,11 @@
     <row r="68" spans="1:12" ht="32.25" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="5"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="29"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="28"/>
       <c r="E68" s="13"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="27"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="32"/>
       <c r="H68" s="13"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
@@ -1932,11 +1962,11 @@
     <row r="69" spans="1:12" ht="32.25" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="5"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="29"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="28"/>
       <c r="E69" s="13"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="27"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="32"/>
       <c r="H69" s="13"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
@@ -1946,11 +1976,11 @@
     <row r="70" spans="1:12" ht="32.25" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="5"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="29"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="28"/>
       <c r="E70" s="13"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="27"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="32"/>
       <c r="H70" s="13"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
@@ -1960,11 +1990,11 @@
     <row r="71" spans="1:12" ht="32.25" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="29"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="28"/>
       <c r="E71" s="13"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="27"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="32"/>
       <c r="H71" s="13"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
@@ -1974,11 +2004,11 @@
     <row r="72" spans="1:12" ht="32.25" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="29"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="28"/>
       <c r="E72" s="13"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="27"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="32"/>
       <c r="H72" s="13"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
@@ -1988,13 +2018,13 @@
     <row r="73" spans="1:12" ht="32.25" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="29"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="28"/>
       <c r="E73" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="26"/>
-      <c r="G73" s="27"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="32"/>
       <c r="H73" s="13"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
@@ -2004,11 +2034,11 @@
     <row r="74" spans="1:12" ht="32.25" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="41"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="34"/>
       <c r="E74" s="13"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="31"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="41"/>
       <c r="H74" s="13"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
@@ -2054,11 +2084,11 @@
       <c r="L77" s="1"/>
     </row>
     <row r="78" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A78" s="40"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
       <c r="F78" s="19"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -2083,48 +2113,54 @@
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="C73:D73"/>
@@ -2149,54 +2185,48 @@
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="F61:G61"/>
     <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F36:G36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/Arbeitsrapport.xlsx
+++ b/docs/Arbeitsrapport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brtoz\Codes\IPT5.1\Stundenplaner-Projekt\IPT5.1_Stundenplaner-Projekt\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813C3772-14D3-4B35-BF33-A9065B3833B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EE4548-C176-4E83-8FDB-F7C487A6C75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="63">
   <si>
     <t>Datum</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Sanjivan</t>
   </si>
   <si>
-    <t>Wird erweitert</t>
-  </si>
-  <si>
     <t>Halldor</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>Code Erweiterung</t>
   </si>
   <si>
-    <t>Arbeitsrapport Erweiterung</t>
-  </si>
-  <si>
     <t>Fehler</t>
   </si>
   <si>
@@ -173,18 +167,9 @@
     <t>Teilweise</t>
   </si>
   <si>
-    <t>Scheiss Arbeitsraport Ampeln</t>
-  </si>
-  <si>
-    <t>NICHT ERFULLT</t>
-  </si>
-  <si>
     <t>Use-Case Diagram</t>
   </si>
   <si>
-    <t>Noch dran</t>
-  </si>
-  <si>
     <t>Finales Projekt</t>
   </si>
   <si>
@@ -201,6 +186,42 @@
   </si>
   <si>
     <t>Benutzeranleitung</t>
+  </si>
+  <si>
+    <t>Code: Zusammengesetzt, Schlüsselklassen vom Prototypen importiert</t>
+  </si>
+  <si>
+    <t>Zu Hause; Klassen: Algo, Combination, Timeblock</t>
+  </si>
+  <si>
+    <t>Bugfixes</t>
+  </si>
+  <si>
+    <t>Arbeitsrapport Tag 4</t>
+  </si>
+  <si>
+    <t>Wollte Ampel-System für den Status einfügen, doch hatte Probleme mit den Rules und funktionierte nicht  mehr.</t>
+  </si>
+  <si>
+    <t>Arbeitsrapport Tag 3</t>
+  </si>
+  <si>
+    <t>Arbeitsrapport Tag 5</t>
+  </si>
+  <si>
+    <t>Gepusht</t>
+  </si>
+  <si>
+    <t>Qualitätskriterien</t>
+  </si>
+  <si>
+    <t>Kenans Reflexion</t>
+  </si>
+  <si>
+    <t>Halldor Algorithmus, Details vom Code erklärt</t>
+  </si>
+  <si>
+    <t>Sanjivan musste noch ganz kurz erklären wie der Algorithmus funktioniert. Gepusht</t>
   </si>
 </sst>
 </file>
@@ -541,45 +562,45 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -805,8 +826,8 @@
   </sheetPr>
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57:G57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1"/>
@@ -847,7 +868,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="1"/>
@@ -896,17 +917,17 @@
     <row r="17" spans="1:12" ht="32.25" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="36"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="36"/>
+      <c r="G17" s="34"/>
       <c r="H17" s="8" t="s">
         <v>7</v>
       </c>
@@ -922,17 +943,17 @@
     <row r="18" spans="1:12" ht="32.25" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="37">
+      <c r="C18" s="35">
         <v>45953</v>
       </c>
-      <c r="D18" s="38"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="40"/>
+        <v>11</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="38"/>
       <c r="H18" s="9">
         <v>30</v>
       </c>
@@ -940,7 +961,7 @@
         <v>8</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="1"/>
@@ -948,17 +969,17 @@
     <row r="19" spans="1:12" ht="32.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="27">
+      <c r="C19" s="28">
         <v>45953</v>
       </c>
-      <c r="D19" s="28"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="30"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="11">
         <v>30</v>
       </c>
@@ -972,22 +993,22 @@
     <row r="20" spans="1:12" ht="32.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="27">
+      <c r="C20" s="28">
         <v>45953</v>
       </c>
-      <c r="D20" s="28"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="30"/>
+      <c r="F20" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="33"/>
       <c r="H20" s="11">
         <v>150</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="7"/>
@@ -996,17 +1017,17 @@
     <row r="21" spans="1:12" ht="32.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="27">
+      <c r="C21" s="28">
         <v>45953</v>
       </c>
-      <c r="D21" s="28"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="30"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="11">
         <v>15</v>
       </c>
@@ -1014,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="1"/>
@@ -1022,17 +1043,17 @@
     <row r="22" spans="1:12" ht="32.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="27">
+      <c r="C22" s="28">
         <v>45953</v>
       </c>
-      <c r="D22" s="28"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="30"/>
+      <c r="F22" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="33"/>
       <c r="H22" s="11">
         <v>120</v>
       </c>
@@ -1046,17 +1067,17 @@
     <row r="23" spans="1:12" ht="32.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="27">
+      <c r="C23" s="28">
         <v>45956</v>
       </c>
-      <c r="D23" s="28"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="30"/>
+      <c r="F23" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="33"/>
       <c r="H23" s="11">
         <v>120</v>
       </c>
@@ -1064,7 +1085,7 @@
         <v>8</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="1"/>
@@ -1072,17 +1093,17 @@
     <row r="24" spans="1:12" ht="32.25" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="27">
+      <c r="C24" s="28">
         <v>45959</v>
       </c>
-      <c r="D24" s="28"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="30"/>
+      <c r="F24" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="33"/>
       <c r="H24" s="11">
         <v>90</v>
       </c>
@@ -1090,7 +1111,7 @@
         <v>8</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="1"/>
@@ -1098,17 +1119,17 @@
     <row r="25" spans="1:12" ht="32.25" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="27">
+      <c r="C25" s="28">
         <v>45960</v>
       </c>
-      <c r="D25" s="35"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="35"/>
+      <c r="F25" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="31"/>
       <c r="H25" s="11">
         <v>30</v>
       </c>
@@ -1116,7 +1137,7 @@
         <v>8</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="1"/>
@@ -1124,17 +1145,17 @@
     <row r="26" spans="1:12" ht="32.25" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="27">
+      <c r="C26" s="28">
         <v>45960</v>
       </c>
-      <c r="D26" s="28"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="30"/>
+        <v>15</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="33"/>
       <c r="H26" s="11">
         <v>180</v>
       </c>
@@ -1148,25 +1169,25 @@
     <row r="27" spans="1:12" ht="76.8" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="27">
+      <c r="C27" s="28">
         <v>45960</v>
       </c>
-      <c r="D27" s="28"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="30"/>
+      <c r="F27" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="33"/>
       <c r="H27" s="11">
         <v>30</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="1"/>
@@ -1174,15 +1195,15 @@
     <row r="28" spans="1:12" ht="34.200000000000003" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="31">
+      <c r="C28" s="30">
         <v>45960</v>
       </c>
-      <c r="D28" s="32"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="13">
@@ -1198,17 +1219,17 @@
     <row r="29" spans="1:12" ht="72" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="27">
+      <c r="C29" s="28">
         <v>45960</v>
       </c>
-      <c r="D29" s="28"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="30"/>
+      <c r="G29" s="33"/>
       <c r="H29" s="13">
         <v>30</v>
       </c>
@@ -1216,7 +1237,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="1"/>
@@ -1224,17 +1245,17 @@
     <row r="30" spans="1:12" ht="32.25" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="31">
+      <c r="C30" s="30">
         <v>45960</v>
       </c>
-      <c r="D30" s="32"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="32"/>
+      <c r="F30" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="27"/>
       <c r="H30" s="13">
         <v>10</v>
       </c>
@@ -1248,17 +1269,17 @@
     <row r="31" spans="1:12" ht="32.25" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="31">
+      <c r="C31" s="30">
         <v>45961</v>
       </c>
-      <c r="D31" s="32"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="32"/>
+        <v>15</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="27"/>
       <c r="H31" s="13">
         <v>30</v>
       </c>
@@ -1272,17 +1293,17 @@
     <row r="32" spans="1:12" ht="32.25" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="31">
+      <c r="C32" s="30">
         <v>45961</v>
       </c>
-      <c r="D32" s="32"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="32"/>
+      <c r="F32" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="27"/>
       <c r="H32" s="13">
         <v>10</v>
       </c>
@@ -1296,17 +1317,17 @@
     <row r="33" spans="1:12" ht="32.25" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="31">
+      <c r="C33" s="30">
         <v>45965</v>
       </c>
-      <c r="D33" s="32"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="32"/>
+      <c r="F33" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="27"/>
       <c r="H33" s="13">
         <v>150</v>
       </c>
@@ -1314,7 +1335,7 @@
         <v>8</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="1"/>
@@ -1322,17 +1343,17 @@
     <row r="34" spans="1:12" ht="32.25" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="31">
+      <c r="C34" s="30">
         <v>45966</v>
       </c>
-      <c r="D34" s="32"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="32"/>
+      <c r="F34" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="27"/>
       <c r="H34" s="13">
         <v>120</v>
       </c>
@@ -1340,7 +1361,7 @@
         <v>8</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" s="1"/>
@@ -1348,17 +1369,17 @@
     <row r="35" spans="1:12" ht="32.25" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="31">
+      <c r="C35" s="30">
         <v>45967</v>
       </c>
-      <c r="D35" s="32"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="32"/>
+      <c r="F35" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="27"/>
       <c r="H35" s="13">
         <v>20</v>
       </c>
@@ -1366,7 +1387,7 @@
         <v>8</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="1"/>
@@ -1374,17 +1395,17 @@
     <row r="36" spans="1:12" ht="32.25" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="31">
+      <c r="C36" s="30">
         <v>45967</v>
       </c>
-      <c r="D36" s="32"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="32"/>
+        <v>15</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="27"/>
       <c r="H36" s="13">
         <v>30</v>
       </c>
@@ -1398,17 +1419,17 @@
     <row r="37" spans="1:12" ht="32.25" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="31">
+      <c r="C37" s="30">
         <v>45967</v>
       </c>
-      <c r="D37" s="32"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="32"/>
+      <c r="F37" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="27"/>
       <c r="H37" s="13">
         <v>60</v>
       </c>
@@ -1422,17 +1443,17 @@
     <row r="38" spans="1:12" ht="32.25" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="31">
+      <c r="C38" s="30">
         <v>45967</v>
       </c>
-      <c r="D38" s="32"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="27"/>
       <c r="H38" s="13">
         <v>30</v>
       </c>
@@ -1446,17 +1467,17 @@
     <row r="39" spans="1:12" ht="32.25" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="31">
+      <c r="C39" s="30">
         <v>45967</v>
       </c>
-      <c r="D39" s="32"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="32"/>
+      <c r="F39" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="27"/>
       <c r="H39" s="13">
         <v>30</v>
       </c>
@@ -1470,25 +1491,25 @@
     <row r="40" spans="1:12" ht="32.25" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="31">
+      <c r="C40" s="30">
         <v>45967</v>
       </c>
-      <c r="D40" s="32"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" s="32"/>
+      <c r="F40" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="27"/>
       <c r="H40" s="13">
         <v>30</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K40" s="7"/>
       <c r="L40" s="1"/>
@@ -1496,25 +1517,25 @@
     <row r="41" spans="1:12" ht="32.25" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="31">
+      <c r="C41" s="30">
         <v>45973</v>
       </c>
-      <c r="D41" s="32"/>
+      <c r="D41" s="27"/>
       <c r="E41" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G41" s="32"/>
+      <c r="F41" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="27"/>
       <c r="H41" s="13">
         <v>120</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="1"/>
@@ -1526,7 +1547,7 @@
       <c r="D42" s="24"/>
       <c r="E42" s="13"/>
       <c r="F42" s="25" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G42" s="24"/>
       <c r="H42" s="13"/>
@@ -1535,44 +1556,46 @@
       <c r="K42" s="7"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" ht="32.25" customHeight="1">
+    <row r="43" spans="1:12" ht="86.4" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="31">
+      <c r="C43" s="30">
         <v>45974</v>
       </c>
-      <c r="D43" s="32"/>
+      <c r="D43" s="27"/>
       <c r="E43" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" s="32"/>
+      <c r="F43" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="27"/>
       <c r="H43" s="13">
         <v>30</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J43" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="K43" s="7"/>
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" ht="32.25" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="31">
+      <c r="C44" s="30">
         <v>45974</v>
       </c>
-      <c r="D44" s="32"/>
+      <c r="D44" s="27"/>
       <c r="E44" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G44" s="32"/>
+        <v>15</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="27"/>
       <c r="H44" s="13">
         <v>60</v>
       </c>
@@ -1586,41 +1609,43 @@
     <row r="45" spans="1:12" ht="32.25" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="27">
+      <c r="C45" s="28">
         <v>45974</v>
       </c>
-      <c r="D45" s="28"/>
+      <c r="D45" s="29"/>
       <c r="E45" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="G45" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G45" s="27"/>
       <c r="H45" s="13">
         <v>30</v>
       </c>
       <c r="I45" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="14"/>
+      <c r="J45" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="K45" s="7"/>
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" ht="50.4" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="27">
+      <c r="C46" s="28">
         <v>45974</v>
       </c>
-      <c r="D46" s="28"/>
+      <c r="D46" s="29"/>
       <c r="E46" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46" s="32"/>
+      <c r="F46" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="27"/>
       <c r="H46" s="13">
         <v>30</v>
       </c>
@@ -1628,7 +1653,7 @@
         <v>8</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K46" s="7"/>
       <c r="L46" s="1"/>
@@ -1636,72 +1661,100 @@
     <row r="47" spans="1:12" ht="32.25" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="27">
+      <c r="C47" s="28">
         <v>45974</v>
       </c>
-      <c r="D47" s="28"/>
+      <c r="D47" s="29"/>
       <c r="E47" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G47" s="32"/>
+      <c r="F47" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" s="27"/>
       <c r="H47" s="13">
         <v>20</v>
       </c>
       <c r="I47" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="14"/>
+      <c r="J47" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="K47" s="7"/>
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" ht="32.25" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
+      <c r="C48" s="28">
+        <v>45980</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="E48" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="27"/>
+      <c r="H48" s="13">
+        <v>60</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="K48" s="7"/>
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12" ht="32.25" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
+      <c r="C49" s="28">
+        <v>45980</v>
+      </c>
+      <c r="D49" s="29"/>
+      <c r="E49" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="13">
+        <v>120</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="K49" s="7"/>
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" ht="32.25" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="27">
+      <c r="C50" s="28">
         <v>45981</v>
       </c>
-      <c r="D50" s="28"/>
+      <c r="D50" s="29"/>
       <c r="E50" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="G50" s="32"/>
-      <c r="H50" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G50" s="27"/>
+      <c r="H50" s="13">
+        <v>100</v>
+      </c>
       <c r="I50" s="14" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="J50" s="14"/>
       <c r="K50" s="7"/>
@@ -1710,41 +1763,73 @@
     <row r="51" spans="1:12" ht="32.25" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="14"/>
+      <c r="C51" s="28">
+        <v>45981</v>
+      </c>
+      <c r="D51" s="29"/>
+      <c r="E51" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="27"/>
+      <c r="H51" s="13">
+        <v>30</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="J51" s="14"/>
       <c r="K51" s="7"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" ht="32.25" customHeight="1">
+    <row r="52" spans="1:12" ht="59.4" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
+      <c r="C52" s="28">
+        <v>45981</v>
+      </c>
+      <c r="D52" s="29"/>
+      <c r="E52" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="27"/>
+      <c r="H52" s="13">
+        <v>80</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="K52" s="7"/>
       <c r="L52" s="1"/>
     </row>
     <row r="53" spans="1:12" ht="32.25" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="14"/>
+      <c r="C53" s="28">
+        <v>45981</v>
+      </c>
+      <c r="D53" s="29"/>
+      <c r="E53" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="27"/>
+      <c r="H53" s="13">
+        <v>15</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="J53" s="14"/>
       <c r="K53" s="7"/>
       <c r="L53" s="1"/>
@@ -1752,13 +1837,23 @@
     <row r="54" spans="1:12" ht="32.25" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="14"/>
+      <c r="C54" s="28">
+        <v>45981</v>
+      </c>
+      <c r="D54" s="29"/>
+      <c r="E54" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" s="27"/>
+      <c r="H54" s="13">
+        <v>40</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="J54" s="14"/>
       <c r="K54" s="7"/>
       <c r="L54" s="1"/>
@@ -1766,11 +1861,11 @@
     <row r="55" spans="1:12" ht="32.25" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="29"/>
       <c r="E55" s="13"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="32"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="27"/>
       <c r="H55" s="13"/>
       <c r="I55" s="14"/>
       <c r="J55" s="14"/>
@@ -1780,11 +1875,11 @@
     <row r="56" spans="1:12" ht="32.25" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="29"/>
       <c r="E56" s="13"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="32"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="27"/>
       <c r="H56" s="13"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14"/>
@@ -1794,11 +1889,11 @@
     <row r="57" spans="1:12" ht="32.25" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="29"/>
       <c r="E57" s="13"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="32"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="27"/>
       <c r="H57" s="13"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
@@ -1808,11 +1903,11 @@
     <row r="58" spans="1:12" ht="32.25" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="5"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="29"/>
       <c r="E58" s="13"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="32"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="27"/>
       <c r="H58" s="13"/>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
@@ -1822,11 +1917,11 @@
     <row r="59" spans="1:12" ht="32.25" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="29"/>
       <c r="E59" s="13"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="32"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="27"/>
       <c r="H59" s="13"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
@@ -1836,11 +1931,11 @@
     <row r="60" spans="1:12" ht="32.25" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="5"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="29"/>
       <c r="E60" s="13"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="32"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="27"/>
       <c r="H60" s="13"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
@@ -1850,11 +1945,11 @@
     <row r="61" spans="1:12" ht="32.25" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="5"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="29"/>
       <c r="E61" s="13"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="32"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="27"/>
       <c r="H61" s="13"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
@@ -1864,11 +1959,11 @@
     <row r="62" spans="1:12" ht="32.25" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="5"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="29"/>
       <c r="E62" s="13"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="32"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="27"/>
       <c r="H62" s="13"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
@@ -1878,11 +1973,11 @@
     <row r="63" spans="1:12" ht="32.25" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="29"/>
       <c r="E63" s="13"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="32"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="27"/>
       <c r="H63" s="13"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
@@ -1892,11 +1987,11 @@
     <row r="64" spans="1:12" ht="32.25" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="29"/>
       <c r="E64" s="13"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="32"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="27"/>
       <c r="H64" s="13"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
@@ -1906,11 +2001,11 @@
     <row r="65" spans="1:12" ht="32.25" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="29"/>
       <c r="E65" s="13"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="32"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="27"/>
       <c r="H65" s="13"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
@@ -1920,11 +2015,11 @@
     <row r="66" spans="1:12" ht="32.25" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="5"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="29"/>
       <c r="E66" s="13"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="32"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="27"/>
       <c r="H66" s="13"/>
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
@@ -1934,11 +2029,11 @@
     <row r="67" spans="1:12" ht="32.25" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="29"/>
       <c r="E67" s="13"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="32"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="27"/>
       <c r="H67" s="13"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
@@ -1948,11 +2043,11 @@
     <row r="68" spans="1:12" ht="32.25" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="5"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="29"/>
       <c r="E68" s="13"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="32"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="27"/>
       <c r="H68" s="13"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
@@ -1962,11 +2057,11 @@
     <row r="69" spans="1:12" ht="32.25" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="5"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="29"/>
       <c r="E69" s="13"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="32"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="27"/>
       <c r="H69" s="13"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
@@ -1976,11 +2071,11 @@
     <row r="70" spans="1:12" ht="32.25" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="5"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="29"/>
       <c r="E70" s="13"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="32"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="27"/>
       <c r="H70" s="13"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
@@ -1990,11 +2085,11 @@
     <row r="71" spans="1:12" ht="32.25" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="29"/>
       <c r="E71" s="13"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="32"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="27"/>
       <c r="H71" s="13"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
@@ -2004,11 +2099,11 @@
     <row r="72" spans="1:12" ht="32.25" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="29"/>
       <c r="E72" s="13"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="32"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="27"/>
       <c r="H72" s="13"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
@@ -2018,13 +2113,13 @@
     <row r="73" spans="1:12" ht="32.25" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="29"/>
       <c r="E73" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="33"/>
-      <c r="G73" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="F73" s="26"/>
+      <c r="G73" s="27"/>
       <c r="H73" s="13"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
@@ -2034,10 +2129,10 @@
     <row r="74" spans="1:12" ht="32.25" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="34"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="40"/>
       <c r="E74" s="13"/>
-      <c r="F74" s="33"/>
+      <c r="F74" s="26"/>
       <c r="G74" s="41"/>
       <c r="H74" s="13"/>
       <c r="I74" s="14"/>
@@ -2084,11 +2179,11 @@
       <c r="L77" s="1"/>
     </row>
     <row r="78" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
       <c r="F78" s="19"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -2113,6 +2208,96 @@
     </row>
   </sheetData>
   <mergeCells count="114">
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
     <mergeCell ref="F68:G68"/>
     <mergeCell ref="F69:G69"/>
     <mergeCell ref="C69:D69"/>
@@ -2137,96 +2322,6 @@
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="F36:G36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/Arbeitsrapport.xlsx
+++ b/docs/Arbeitsrapport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brtoz\Codes\IPT5.1\Stundenplaner-Projekt\IPT5.1_Stundenplaner-Projekt\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EE4548-C176-4E83-8FDB-F7C487A6C75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36CBDA7-66B9-4184-9B85-42B1BD0BDD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="67">
   <si>
     <t>Datum</t>
   </si>
@@ -158,15 +158,9 @@
     <t>Fehler</t>
   </si>
   <si>
-    <t>Problem beim Pushen</t>
-  </si>
-  <si>
     <t>Benutzerinteraktionen codiert (Program), unnötigen Relationen gelöscht</t>
   </si>
   <si>
-    <t>Teilweise</t>
-  </si>
-  <si>
     <t>Use-Case Diagram</t>
   </si>
   <si>
@@ -222,6 +216,24 @@
   </si>
   <si>
     <t>Sanjivan musste noch ganz kurz erklären wie der Algorithmus funktioniert. Gepusht</t>
+  </si>
+  <si>
+    <t>Bugfixes, Benutzeroberfläche erweitert</t>
+  </si>
+  <si>
+    <t>Bugfixes, Benutzeroberfläche erweitert, Kommentare hinzugefügt, JSON Speicherung eingesetzt</t>
+  </si>
+  <si>
+    <t>Berats Reflexion</t>
+  </si>
+  <si>
+    <t>Halldors Reflexion</t>
+  </si>
+  <si>
+    <t>Problem beim Commiten und Pushen.                                 Lösung: Sanjivan commited und pusht für mich.</t>
+  </si>
+  <si>
+    <t>Code-Testing</t>
   </si>
 </sst>
 </file>
@@ -562,26 +574,35 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -595,15 +616,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -826,8 +838,8 @@
   </sheetPr>
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55:D55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1"/>
@@ -917,17 +929,17 @@
     <row r="17" spans="1:12" ht="32.25" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="34"/>
+      <c r="G17" s="37"/>
       <c r="H17" s="8" t="s">
         <v>7</v>
       </c>
@@ -943,17 +955,17 @@
     <row r="18" spans="1:12" ht="32.25" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="35">
+      <c r="C18" s="38">
         <v>45953</v>
       </c>
-      <c r="D18" s="36"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="38"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="9">
         <v>30</v>
       </c>
@@ -969,17 +981,17 @@
     <row r="19" spans="1:12" ht="32.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="28">
+      <c r="C19" s="27">
         <v>45953</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="33"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="11">
         <v>30</v>
       </c>
@@ -993,17 +1005,17 @@
     <row r="20" spans="1:12" ht="32.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="28">
+      <c r="C20" s="27">
         <v>45953</v>
       </c>
-      <c r="D20" s="29"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="33"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="11">
         <v>150</v>
       </c>
@@ -1017,17 +1029,17 @@
     <row r="21" spans="1:12" ht="32.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="28">
+      <c r="C21" s="27">
         <v>45953</v>
       </c>
-      <c r="D21" s="29"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="33"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="11">
         <v>15</v>
       </c>
@@ -1043,17 +1055,17 @@
     <row r="22" spans="1:12" ht="32.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="28">
+      <c r="C22" s="27">
         <v>45953</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="33"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="11">
         <v>120</v>
       </c>
@@ -1067,17 +1079,17 @@
     <row r="23" spans="1:12" ht="32.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="28">
+      <c r="C23" s="27">
         <v>45956</v>
       </c>
-      <c r="D23" s="29"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="33"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="11">
         <v>120</v>
       </c>
@@ -1093,17 +1105,17 @@
     <row r="24" spans="1:12" ht="32.25" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="28">
+      <c r="C24" s="27">
         <v>45959</v>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="33"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="11">
         <v>90</v>
       </c>
@@ -1119,17 +1131,17 @@
     <row r="25" spans="1:12" ht="32.25" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="28">
+      <c r="C25" s="27">
         <v>45960</v>
       </c>
-      <c r="D25" s="31"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="31"/>
+      <c r="G25" s="36"/>
       <c r="H25" s="11">
         <v>30</v>
       </c>
@@ -1145,17 +1157,17 @@
     <row r="26" spans="1:12" ht="32.25" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="28">
+      <c r="C26" s="27">
         <v>45960</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="33"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="11">
         <v>180</v>
       </c>
@@ -1169,17 +1181,17 @@
     <row r="27" spans="1:12" ht="76.8" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="28">
+      <c r="C27" s="27">
         <v>45960</v>
       </c>
-      <c r="D27" s="29"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="33"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="11">
         <v>30</v>
       </c>
@@ -1195,10 +1207,10 @@
     <row r="28" spans="1:12" ht="34.200000000000003" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="30">
+      <c r="C28" s="31">
         <v>45960</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="13" t="s">
         <v>10</v>
       </c>
@@ -1219,17 +1231,17 @@
     <row r="29" spans="1:12" ht="72" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="28">
+      <c r="C29" s="27">
         <v>45960</v>
       </c>
-      <c r="D29" s="29"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="33"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="13">
         <v>30</v>
       </c>
@@ -1245,17 +1257,17 @@
     <row r="30" spans="1:12" ht="32.25" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="30">
+      <c r="C30" s="31">
         <v>45960</v>
       </c>
-      <c r="D30" s="27"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="27"/>
+      <c r="G30" s="32"/>
       <c r="H30" s="13">
         <v>10</v>
       </c>
@@ -1269,17 +1281,17 @@
     <row r="31" spans="1:12" ht="32.25" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="30">
+      <c r="C31" s="31">
         <v>45961</v>
       </c>
-      <c r="D31" s="27"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="27"/>
+      <c r="G31" s="32"/>
       <c r="H31" s="13">
         <v>30</v>
       </c>
@@ -1293,17 +1305,17 @@
     <row r="32" spans="1:12" ht="32.25" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="30">
+      <c r="C32" s="31">
         <v>45961</v>
       </c>
-      <c r="D32" s="27"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="27"/>
+      <c r="G32" s="32"/>
       <c r="H32" s="13">
         <v>10</v>
       </c>
@@ -1317,17 +1329,17 @@
     <row r="33" spans="1:12" ht="32.25" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="30">
+      <c r="C33" s="31">
         <v>45965</v>
       </c>
-      <c r="D33" s="27"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="27"/>
+      <c r="G33" s="32"/>
       <c r="H33" s="13">
         <v>150</v>
       </c>
@@ -1343,17 +1355,17 @@
     <row r="34" spans="1:12" ht="32.25" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="30">
+      <c r="C34" s="31">
         <v>45966</v>
       </c>
-      <c r="D34" s="27"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="27"/>
+      <c r="G34" s="32"/>
       <c r="H34" s="13">
         <v>120</v>
       </c>
@@ -1369,17 +1381,17 @@
     <row r="35" spans="1:12" ht="32.25" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="30">
+      <c r="C35" s="31">
         <v>45967</v>
       </c>
-      <c r="D35" s="27"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="27"/>
+      <c r="G35" s="32"/>
       <c r="H35" s="13">
         <v>20</v>
       </c>
@@ -1395,17 +1407,17 @@
     <row r="36" spans="1:12" ht="32.25" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="30">
+      <c r="C36" s="31">
         <v>45967</v>
       </c>
-      <c r="D36" s="27"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="27"/>
+      <c r="G36" s="32"/>
       <c r="H36" s="13">
         <v>30</v>
       </c>
@@ -1419,17 +1431,17 @@
     <row r="37" spans="1:12" ht="32.25" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="30">
+      <c r="C37" s="31">
         <v>45967</v>
       </c>
-      <c r="D37" s="27"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="27"/>
+      <c r="G37" s="32"/>
       <c r="H37" s="13">
         <v>60</v>
       </c>
@@ -1443,17 +1455,17 @@
     <row r="38" spans="1:12" ht="32.25" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="30">
+      <c r="C38" s="31">
         <v>45967</v>
       </c>
-      <c r="D38" s="27"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G38" s="27"/>
+      <c r="G38" s="32"/>
       <c r="H38" s="13">
         <v>30</v>
       </c>
@@ -1467,17 +1479,17 @@
     <row r="39" spans="1:12" ht="32.25" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="30">
+      <c r="C39" s="31">
         <v>45967</v>
       </c>
-      <c r="D39" s="27"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="27"/>
+      <c r="F39" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="32"/>
       <c r="H39" s="13">
         <v>30</v>
       </c>
@@ -1488,20 +1500,20 @@
       <c r="K39" s="7"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" ht="32.25" customHeight="1">
+    <row r="40" spans="1:12" ht="60" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="30">
+      <c r="C40" s="31">
         <v>45967</v>
       </c>
-      <c r="D40" s="27"/>
+      <c r="D40" s="32"/>
       <c r="E40" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G40" s="27"/>
+      <c r="G40" s="32"/>
       <c r="H40" s="13">
         <v>30</v>
       </c>
@@ -1509,7 +1521,7 @@
         <v>40</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="K40" s="7"/>
       <c r="L40" s="1"/>
@@ -1517,22 +1529,22 @@
     <row r="41" spans="1:12" ht="32.25" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="30">
+      <c r="C41" s="31">
         <v>45973</v>
       </c>
-      <c r="D41" s="27"/>
+      <c r="D41" s="32"/>
       <c r="E41" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G41" s="27"/>
+      <c r="F41" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="32"/>
       <c r="H41" s="13">
         <v>120</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="J41" s="14" t="s">
         <v>24</v>
@@ -1547,7 +1559,7 @@
       <c r="D42" s="24"/>
       <c r="E42" s="13"/>
       <c r="F42" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G42" s="24"/>
       <c r="H42" s="13"/>
@@ -1559,17 +1571,17 @@
     <row r="43" spans="1:12" ht="86.4" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="30">
+      <c r="C43" s="31">
         <v>45974</v>
       </c>
-      <c r="D43" s="27"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" s="27"/>
+      <c r="F43" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="32"/>
       <c r="H43" s="13">
         <v>30</v>
       </c>
@@ -1577,7 +1589,7 @@
         <v>8</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="1"/>
@@ -1585,17 +1597,17 @@
     <row r="44" spans="1:12" ht="32.25" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="30">
+      <c r="C44" s="31">
         <v>45974</v>
       </c>
-      <c r="D44" s="27"/>
+      <c r="D44" s="32"/>
       <c r="E44" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" s="27"/>
+      <c r="F44" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="32"/>
       <c r="H44" s="13">
         <v>60</v>
       </c>
@@ -1609,17 +1621,17 @@
     <row r="45" spans="1:12" ht="32.25" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="28">
+      <c r="C45" s="27">
         <v>45974</v>
       </c>
-      <c r="D45" s="29"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F45" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G45" s="27"/>
+      <c r="F45" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45" s="32"/>
       <c r="H45" s="13">
         <v>30</v>
       </c>
@@ -1627,7 +1639,7 @@
         <v>8</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="1"/>
@@ -1635,17 +1647,17 @@
     <row r="46" spans="1:12" ht="50.4" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="28">
+      <c r="C46" s="27">
         <v>45974</v>
       </c>
-      <c r="D46" s="29"/>
+      <c r="D46" s="28"/>
       <c r="E46" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" s="27"/>
+      <c r="F46" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" s="32"/>
       <c r="H46" s="13">
         <v>30</v>
       </c>
@@ -1653,7 +1665,7 @@
         <v>8</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K46" s="7"/>
       <c r="L46" s="1"/>
@@ -1661,17 +1673,17 @@
     <row r="47" spans="1:12" ht="32.25" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="28">
+      <c r="C47" s="27">
         <v>45974</v>
       </c>
-      <c r="D47" s="29"/>
+      <c r="D47" s="28"/>
       <c r="E47" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G47" s="27"/>
+      <c r="F47" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G47" s="32"/>
       <c r="H47" s="13">
         <v>20</v>
       </c>
@@ -1679,7 +1691,7 @@
         <v>8</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K47" s="7"/>
       <c r="L47" s="1"/>
@@ -1687,17 +1699,17 @@
     <row r="48" spans="1:12" ht="32.25" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="28">
+      <c r="C48" s="27">
         <v>45980</v>
       </c>
-      <c r="D48" s="29"/>
+      <c r="D48" s="28"/>
       <c r="E48" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" s="27"/>
+      <c r="F48" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="32"/>
       <c r="H48" s="13">
         <v>60</v>
       </c>
@@ -1705,7 +1717,7 @@
         <v>8</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K48" s="7"/>
       <c r="L48" s="1"/>
@@ -1713,17 +1725,17 @@
     <row r="49" spans="1:12" ht="32.25" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="28">
+      <c r="C49" s="27">
         <v>45980</v>
       </c>
-      <c r="D49" s="29"/>
+      <c r="D49" s="28"/>
       <c r="E49" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G49" s="27"/>
+      <c r="F49" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="32"/>
       <c r="H49" s="13">
         <v>120</v>
       </c>
@@ -1739,17 +1751,17 @@
     <row r="50" spans="1:12" ht="32.25" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="28">
+      <c r="C50" s="27">
         <v>45981</v>
       </c>
-      <c r="D50" s="29"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G50" s="27"/>
+      <c r="F50" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G50" s="32"/>
       <c r="H50" s="13">
         <v>100</v>
       </c>
@@ -1763,17 +1775,17 @@
     <row r="51" spans="1:12" ht="32.25" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="28">
+      <c r="C51" s="27">
         <v>45981</v>
       </c>
-      <c r="D51" s="29"/>
+      <c r="D51" s="28"/>
       <c r="E51" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F51" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G51" s="27"/>
+      <c r="F51" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" s="32"/>
       <c r="H51" s="13">
         <v>30</v>
       </c>
@@ -1787,17 +1799,17 @@
     <row r="52" spans="1:12" ht="59.4" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="28">
+      <c r="C52" s="27">
         <v>45981</v>
       </c>
-      <c r="D52" s="29"/>
+      <c r="D52" s="28"/>
       <c r="E52" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="G52" s="27"/>
+      <c r="F52" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G52" s="32"/>
       <c r="H52" s="13">
         <v>80</v>
       </c>
@@ -1805,7 +1817,7 @@
         <v>8</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K52" s="7"/>
       <c r="L52" s="1"/>
@@ -1813,17 +1825,17 @@
     <row r="53" spans="1:12" ht="32.25" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="28">
+      <c r="C53" s="27">
         <v>45981</v>
       </c>
-      <c r="D53" s="29"/>
+      <c r="D53" s="28"/>
       <c r="E53" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G53" s="27"/>
+      <c r="F53" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="G53" s="32"/>
       <c r="H53" s="13">
         <v>15</v>
       </c>
@@ -1837,17 +1849,17 @@
     <row r="54" spans="1:12" ht="32.25" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="28">
+      <c r="C54" s="27">
         <v>45981</v>
       </c>
-      <c r="D54" s="29"/>
+      <c r="D54" s="28"/>
       <c r="E54" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G54" s="27"/>
+      <c r="F54" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54" s="32"/>
       <c r="H54" s="13">
         <v>40</v>
       </c>
@@ -1861,41 +1873,75 @@
     <row r="55" spans="1:12" ht="32.25" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
+      <c r="C55" s="27">
+        <v>45986</v>
+      </c>
+      <c r="D55" s="28"/>
+      <c r="E55" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" s="32"/>
+      <c r="H55" s="13">
+        <v>120</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="K55" s="7"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="1:12" ht="32.25" customHeight="1">
+    <row r="56" spans="1:12" ht="50.4" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
+      <c r="C56" s="27">
+        <v>45987</v>
+      </c>
+      <c r="D56" s="28"/>
+      <c r="E56" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G56" s="32"/>
+      <c r="H56" s="13">
+        <v>240</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="K56" s="7"/>
       <c r="L56" s="1"/>
     </row>
     <row r="57" spans="1:12" ht="32.25" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="14"/>
+      <c r="C57" s="27">
+        <v>45988</v>
+      </c>
+      <c r="D57" s="28"/>
+      <c r="E57" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" s="32"/>
+      <c r="H57" s="13">
+        <v>15</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="J57" s="14"/>
       <c r="K57" s="7"/>
       <c r="L57" s="1"/>
@@ -1903,13 +1949,23 @@
     <row r="58" spans="1:12" ht="32.25" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="5"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="14"/>
+      <c r="C58" s="27">
+        <v>45988</v>
+      </c>
+      <c r="D58" s="28"/>
+      <c r="E58" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" s="32"/>
+      <c r="H58" s="13">
+        <v>15</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="J58" s="14"/>
       <c r="K58" s="7"/>
       <c r="L58" s="1"/>
@@ -1917,11 +1973,17 @@
     <row r="59" spans="1:12" ht="32.25" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="27"/>
+      <c r="C59" s="27">
+        <v>45988</v>
+      </c>
+      <c r="D59" s="28"/>
+      <c r="E59" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" s="32"/>
       <c r="H59" s="13"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
@@ -1931,11 +1993,17 @@
     <row r="60" spans="1:12" ht="32.25" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="5"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="27"/>
+      <c r="C60" s="27">
+        <v>45988</v>
+      </c>
+      <c r="D60" s="28"/>
+      <c r="E60" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" s="32"/>
       <c r="H60" s="13"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
@@ -1945,11 +2013,17 @@
     <row r="61" spans="1:12" ht="32.25" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="5"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="27"/>
+      <c r="C61" s="27">
+        <v>45988</v>
+      </c>
+      <c r="D61" s="28"/>
+      <c r="E61" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G61" s="32"/>
       <c r="H61" s="13"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
@@ -1959,11 +2033,11 @@
     <row r="62" spans="1:12" ht="32.25" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="5"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="29"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="28"/>
       <c r="E62" s="13"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="27"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="32"/>
       <c r="H62" s="13"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
@@ -1973,11 +2047,11 @@
     <row r="63" spans="1:12" ht="32.25" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="29"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="28"/>
       <c r="E63" s="13"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="27"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="32"/>
       <c r="H63" s="13"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
@@ -1987,11 +2061,11 @@
     <row r="64" spans="1:12" ht="32.25" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="29"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="28"/>
       <c r="E64" s="13"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="27"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="32"/>
       <c r="H64" s="13"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
@@ -2001,11 +2075,11 @@
     <row r="65" spans="1:12" ht="32.25" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="29"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="28"/>
       <c r="E65" s="13"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="27"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="32"/>
       <c r="H65" s="13"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
@@ -2015,11 +2089,11 @@
     <row r="66" spans="1:12" ht="32.25" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="5"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="29"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="28"/>
       <c r="E66" s="13"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="27"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="32"/>
       <c r="H66" s="13"/>
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
@@ -2029,11 +2103,11 @@
     <row r="67" spans="1:12" ht="32.25" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="29"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="28"/>
       <c r="E67" s="13"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="27"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="32"/>
       <c r="H67" s="13"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
@@ -2043,11 +2117,11 @@
     <row r="68" spans="1:12" ht="32.25" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="5"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="29"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="28"/>
       <c r="E68" s="13"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="27"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="32"/>
       <c r="H68" s="13"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
@@ -2057,11 +2131,11 @@
     <row r="69" spans="1:12" ht="32.25" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="5"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="29"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="28"/>
       <c r="E69" s="13"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="27"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="32"/>
       <c r="H69" s="13"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
@@ -2071,11 +2145,11 @@
     <row r="70" spans="1:12" ht="32.25" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="5"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="29"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="28"/>
       <c r="E70" s="13"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="27"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="32"/>
       <c r="H70" s="13"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
@@ -2085,11 +2159,11 @@
     <row r="71" spans="1:12" ht="32.25" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="29"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="28"/>
       <c r="E71" s="13"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="27"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="32"/>
       <c r="H71" s="13"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
@@ -2099,11 +2173,11 @@
     <row r="72" spans="1:12" ht="32.25" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="29"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="28"/>
       <c r="E72" s="13"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="27"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="32"/>
       <c r="H72" s="13"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
@@ -2113,13 +2187,13 @@
     <row r="73" spans="1:12" ht="32.25" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="29"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="28"/>
       <c r="E73" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F73" s="26"/>
-      <c r="G73" s="27"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="32"/>
       <c r="H73" s="13"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
@@ -2129,11 +2203,11 @@
     <row r="74" spans="1:12" ht="32.25" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="40"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="34"/>
       <c r="E74" s="13"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="41"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="35"/>
       <c r="H74" s="13"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
@@ -2179,11 +2253,11 @@
       <c r="L77" s="1"/>
     </row>
     <row r="78" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A78" s="39"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
       <c r="F78" s="19"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -2208,6 +2282,96 @@
     </row>
   </sheetData>
   <mergeCells count="114">
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="A78:E78"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
@@ -2232,96 +2396,6 @@
     <mergeCell ref="F74:G74"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="F36:G36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C59:D59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/Arbeitsrapport.xlsx
+++ b/docs/Arbeitsrapport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brtoz\Codes\IPT5.1\Stundenplaner-Projekt\IPT5.1_Stundenplaner-Projekt\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36CBDA7-66B9-4184-9B85-42B1BD0BDD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B24C715-F276-46F0-8FC4-CF96E5F6246E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="76">
   <si>
     <t>Datum</t>
   </si>
@@ -234,6 +234,33 @@
   </si>
   <si>
     <t>Code-Testing</t>
+  </si>
+  <si>
+    <t>Umsetzung</t>
+  </si>
+  <si>
+    <t>GitHub Repository finishes</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Arbeitsrapport Tag 6</t>
+  </si>
+  <si>
+    <t>Alles auf Canvas übertragen</t>
+  </si>
+  <si>
+    <t>Use-Case Diagram Erweiterung</t>
+  </si>
+  <si>
+    <t>Algo hat wegen persistente Speicherung nicht funktioniert.</t>
+  </si>
+  <si>
+    <t>ProjektAbgabe</t>
+  </si>
+  <si>
+    <t>1 Sekunde</t>
   </si>
 </sst>
 </file>
@@ -501,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -518,9 +545,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -544,9 +568,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -574,49 +595,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,10 +851,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62:D62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1"/>
@@ -890,7 +905,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="4"/>
@@ -929,1431 +944,1341 @@
     <row r="17" spans="1:12" ht="32.25" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="8" t="s">
+      <c r="G17" s="32"/>
+      <c r="H17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="K17" s="6"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="32.25" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="38">
+      <c r="C18" s="33">
         <v>45953</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="34"/>
+      <c r="E18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="9">
+      <c r="G18" s="36"/>
+      <c r="H18" s="8">
         <v>30</v>
       </c>
-      <c r="I18" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="10" t="s">
+      <c r="I18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="7"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="32.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="27">
+      <c r="C19" s="26">
         <v>45953</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="11">
+      <c r="G19" s="31"/>
+      <c r="H19" s="10">
         <v>30</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="7"/>
+      <c r="I19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="32.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="27">
+      <c r="C20" s="26">
         <v>45953</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="11">
+      <c r="G20" s="31"/>
+      <c r="H20" s="10">
         <v>150</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="7"/>
+      <c r="I20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="32.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="27">
+      <c r="C21" s="26">
         <v>45953</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="11" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="11">
+      <c r="G21" s="31"/>
+      <c r="H21" s="10">
         <v>15</v>
       </c>
-      <c r="I21" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="12" t="s">
+      <c r="I21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="7"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="32.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="27">
+      <c r="C22" s="26">
         <v>45953</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="11" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="11">
+      <c r="G22" s="31"/>
+      <c r="H22" s="10">
         <v>120</v>
       </c>
-      <c r="I22" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="7"/>
+      <c r="I22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="6"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="32.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="27">
+      <c r="C23" s="26">
         <v>45956</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="11" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="11">
+      <c r="G23" s="31"/>
+      <c r="H23" s="10">
         <v>120</v>
       </c>
-      <c r="I23" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="12" t="s">
+      <c r="I23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="7"/>
+      <c r="K23" s="6"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="32.25" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="27">
+      <c r="C24" s="26">
         <v>45959</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="11" t="s">
+      <c r="D24" s="27"/>
+      <c r="E24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="11">
+      <c r="G24" s="31"/>
+      <c r="H24" s="10">
         <v>90</v>
       </c>
-      <c r="I24" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="12" t="s">
+      <c r="I24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="7"/>
+      <c r="K24" s="6"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="32.25" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="27">
+      <c r="C25" s="26">
         <v>45960</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="11" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="11">
+      <c r="G25" s="29"/>
+      <c r="H25" s="10">
         <v>30</v>
       </c>
-      <c r="I25" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="12" t="s">
+      <c r="I25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="7"/>
+      <c r="K25" s="6"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="32.25" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="27">
+      <c r="C26" s="26">
         <v>45960</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="11" t="s">
+      <c r="D26" s="27"/>
+      <c r="E26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="11">
+      <c r="G26" s="31"/>
+      <c r="H26" s="10">
         <v>180</v>
       </c>
-      <c r="I26" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="7"/>
+      <c r="I26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="6"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="76.8" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="27">
+      <c r="C27" s="26">
         <v>45960</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="11" t="s">
+      <c r="D27" s="27"/>
+      <c r="E27" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="11">
+      <c r="G27" s="31"/>
+      <c r="H27" s="10">
         <v>30</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="7"/>
+      <c r="K27" s="6"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="34.200000000000003" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="31">
+      <c r="C28" s="28">
         <v>45960</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="13" t="s">
+      <c r="D28" s="25"/>
+      <c r="E28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="13">
+      <c r="G28" s="20"/>
+      <c r="H28" s="12">
         <v>120</v>
       </c>
-      <c r="I28" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="7"/>
+      <c r="I28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="13"/>
+      <c r="K28" s="6"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="72" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="27">
+      <c r="C29" s="26">
         <v>45960</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="13" t="s">
+      <c r="D29" s="27"/>
+      <c r="E29" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="13">
+      <c r="G29" s="31"/>
+      <c r="H29" s="12">
         <v>30</v>
       </c>
-      <c r="I29" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="14" t="s">
+      <c r="I29" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K29" s="7"/>
+      <c r="K29" s="6"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="32.25" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="31">
+      <c r="C30" s="28">
         <v>45960</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="13" t="s">
+      <c r="D30" s="25"/>
+      <c r="E30" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="13">
+      <c r="G30" s="25"/>
+      <c r="H30" s="12">
         <v>10</v>
       </c>
-      <c r="I30" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J30" s="14"/>
-      <c r="K30" s="7"/>
+      <c r="I30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="13"/>
+      <c r="K30" s="6"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="32.25" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="31">
+      <c r="C31" s="28">
         <v>45961</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="13" t="s">
+      <c r="D31" s="25"/>
+      <c r="E31" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="13">
+      <c r="G31" s="25"/>
+      <c r="H31" s="12">
         <v>30</v>
       </c>
-      <c r="I31" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" s="14"/>
-      <c r="K31" s="7"/>
+      <c r="I31" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="13"/>
+      <c r="K31" s="6"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="31">
+      <c r="C32" s="28">
         <v>45961</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="13" t="s">
+      <c r="D32" s="25"/>
+      <c r="E32" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="13">
+      <c r="G32" s="25"/>
+      <c r="H32" s="12">
         <v>10</v>
       </c>
-      <c r="I32" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="14"/>
-      <c r="K32" s="7"/>
+      <c r="I32" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="13"/>
+      <c r="K32" s="6"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" ht="32.25" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="31">
+      <c r="C33" s="28">
         <v>45965</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="13" t="s">
+      <c r="D33" s="25"/>
+      <c r="E33" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="13">
+      <c r="G33" s="25"/>
+      <c r="H33" s="12">
         <v>150</v>
       </c>
-      <c r="I33" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="14" t="s">
+      <c r="I33" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="7"/>
+      <c r="K33" s="6"/>
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" ht="32.25" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="31">
+      <c r="C34" s="28">
         <v>45966</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="13" t="s">
+      <c r="D34" s="25"/>
+      <c r="E34" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="13">
+      <c r="G34" s="25"/>
+      <c r="H34" s="12">
         <v>120</v>
       </c>
-      <c r="I34" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34" s="14" t="s">
+      <c r="I34" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K34" s="7"/>
+      <c r="K34" s="6"/>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" ht="32.25" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="31">
+      <c r="C35" s="28">
         <v>45967</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="13" t="s">
+      <c r="D35" s="25"/>
+      <c r="E35" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="32"/>
-      <c r="H35" s="13">
+      <c r="G35" s="25"/>
+      <c r="H35" s="12">
         <v>20</v>
       </c>
-      <c r="I35" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" s="14" t="s">
+      <c r="I35" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K35" s="7"/>
+      <c r="K35" s="6"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" ht="32.25" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="31">
+      <c r="C36" s="28">
         <v>45967</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="13" t="s">
+      <c r="D36" s="25"/>
+      <c r="E36" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="13">
+      <c r="G36" s="25"/>
+      <c r="H36" s="12">
         <v>30</v>
       </c>
-      <c r="I36" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="7"/>
+      <c r="I36" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="13"/>
+      <c r="K36" s="6"/>
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" ht="32.25" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="31">
+      <c r="C37" s="28">
         <v>45967</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="13" t="s">
+      <c r="D37" s="25"/>
+      <c r="E37" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="F37" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="32"/>
-      <c r="H37" s="13">
+      <c r="G37" s="25"/>
+      <c r="H37" s="12">
         <v>60</v>
       </c>
-      <c r="I37" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J37" s="14"/>
-      <c r="K37" s="7"/>
+      <c r="I37" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="13"/>
+      <c r="K37" s="6"/>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" ht="32.25" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="31">
+      <c r="C38" s="28">
         <v>45967</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="13" t="s">
+      <c r="D38" s="25"/>
+      <c r="E38" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G38" s="32"/>
-      <c r="H38" s="13">
+      <c r="G38" s="25"/>
+      <c r="H38" s="12">
         <v>30</v>
       </c>
-      <c r="I38" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J38" s="14"/>
-      <c r="K38" s="7"/>
+      <c r="I38" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="13"/>
+      <c r="K38" s="6"/>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" ht="32.25" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="31">
+      <c r="C39" s="28">
         <v>45967</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="13" t="s">
+      <c r="D39" s="25"/>
+      <c r="E39" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="32"/>
-      <c r="H39" s="13">
+      <c r="G39" s="25"/>
+      <c r="H39" s="12">
         <v>30</v>
       </c>
-      <c r="I39" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="7"/>
+      <c r="I39" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="13"/>
+      <c r="K39" s="6"/>
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" ht="60" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="31">
+      <c r="C40" s="28">
         <v>45967</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="13" t="s">
+      <c r="D40" s="25"/>
+      <c r="E40" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G40" s="32"/>
-      <c r="H40" s="13">
+      <c r="G40" s="25"/>
+      <c r="H40" s="12">
         <v>30</v>
       </c>
-      <c r="I40" s="14" t="s">
+      <c r="I40" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="J40" s="14" t="s">
+      <c r="J40" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K40" s="7"/>
+      <c r="K40" s="6"/>
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" ht="32.25" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="31">
+      <c r="C41" s="28">
         <v>45973</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="13" t="s">
+      <c r="D41" s="25"/>
+      <c r="E41" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="F41" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G41" s="32"/>
-      <c r="H41" s="13">
+      <c r="G41" s="25"/>
+      <c r="H41" s="12">
         <v>120</v>
       </c>
-      <c r="I41" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="14" t="s">
+      <c r="I41" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K41" s="7"/>
+      <c r="K41" s="6"/>
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" ht="19.2" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="25" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="24"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="7"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="6"/>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" ht="86.4" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="31">
+      <c r="C43" s="28">
         <v>45974</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="13" t="s">
+      <c r="D43" s="25"/>
+      <c r="E43" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="33" t="s">
+      <c r="F43" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G43" s="32"/>
-      <c r="H43" s="13">
+      <c r="G43" s="25"/>
+      <c r="H43" s="12">
         <v>30</v>
       </c>
-      <c r="I43" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="14" t="s">
+      <c r="I43" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K43" s="7"/>
+      <c r="K43" s="6"/>
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" ht="32.25" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="31">
+      <c r="C44" s="28">
         <v>45974</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="13" t="s">
+      <c r="D44" s="25"/>
+      <c r="E44" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="33" t="s">
+      <c r="F44" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="G44" s="32"/>
-      <c r="H44" s="13">
+      <c r="G44" s="25"/>
+      <c r="H44" s="12">
         <v>60</v>
       </c>
-      <c r="I44" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="14"/>
-      <c r="K44" s="7"/>
+      <c r="I44" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="13"/>
+      <c r="K44" s="6"/>
       <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12" ht="32.25" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="27">
+      <c r="C45" s="26">
         <v>45974</v>
       </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="13" t="s">
+      <c r="D45" s="27"/>
+      <c r="E45" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="F45" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G45" s="32"/>
-      <c r="H45" s="13">
+      <c r="G45" s="25"/>
+      <c r="H45" s="12">
         <v>30</v>
       </c>
-      <c r="I45" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="14" t="s">
+      <c r="I45" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="K45" s="7"/>
+      <c r="K45" s="6"/>
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" ht="50.4" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="27">
+      <c r="C46" s="26">
         <v>45974</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="13" t="s">
+      <c r="D46" s="27"/>
+      <c r="E46" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="33" t="s">
+      <c r="F46" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="32"/>
-      <c r="H46" s="13">
+      <c r="G46" s="25"/>
+      <c r="H46" s="12">
         <v>30</v>
       </c>
-      <c r="I46" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="14" t="s">
+      <c r="I46" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K46" s="7"/>
+      <c r="K46" s="6"/>
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" ht="32.25" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="27">
+      <c r="C47" s="26">
         <v>45974</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="13" t="s">
+      <c r="D47" s="27"/>
+      <c r="E47" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="F47" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G47" s="32"/>
-      <c r="H47" s="13">
+      <c r="G47" s="25"/>
+      <c r="H47" s="12">
         <v>20</v>
       </c>
-      <c r="I47" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="14" t="s">
+      <c r="I47" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="K47" s="7"/>
+      <c r="K47" s="6"/>
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" ht="32.25" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="27">
+      <c r="C48" s="26">
         <v>45980</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="13" t="s">
+      <c r="D48" s="27"/>
+      <c r="E48" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="33" t="s">
+      <c r="F48" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G48" s="32"/>
-      <c r="H48" s="13">
+      <c r="G48" s="25"/>
+      <c r="H48" s="12">
         <v>60</v>
       </c>
-      <c r="I48" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="14" t="s">
+      <c r="I48" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K48" s="7"/>
+      <c r="K48" s="6"/>
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12" ht="32.25" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="27">
+      <c r="C49" s="26">
         <v>45980</v>
       </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="13" t="s">
+      <c r="D49" s="27"/>
+      <c r="E49" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="33" t="s">
+      <c r="F49" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G49" s="32"/>
-      <c r="H49" s="13">
+      <c r="G49" s="25"/>
+      <c r="H49" s="12">
         <v>120</v>
       </c>
-      <c r="I49" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="14" t="s">
+      <c r="I49" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K49" s="7"/>
+      <c r="K49" s="6"/>
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" ht="32.25" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="27">
+      <c r="C50" s="26">
         <v>45981</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="13" t="s">
+      <c r="D50" s="27"/>
+      <c r="E50" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="33" t="s">
+      <c r="F50" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G50" s="32"/>
-      <c r="H50" s="13">
+      <c r="G50" s="25"/>
+      <c r="H50" s="12">
         <v>100</v>
       </c>
-      <c r="I50" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J50" s="14"/>
-      <c r="K50" s="7"/>
+      <c r="I50" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="13"/>
+      <c r="K50" s="6"/>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="32.25" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="27">
+      <c r="C51" s="26">
         <v>45981</v>
       </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="13" t="s">
+      <c r="D51" s="27"/>
+      <c r="E51" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F51" s="33" t="s">
+      <c r="F51" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G51" s="32"/>
-      <c r="H51" s="13">
+      <c r="G51" s="25"/>
+      <c r="H51" s="12">
         <v>30</v>
       </c>
-      <c r="I51" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J51" s="14"/>
-      <c r="K51" s="7"/>
+      <c r="I51" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="13"/>
+      <c r="K51" s="6"/>
       <c r="L51" s="1"/>
     </row>
     <row r="52" spans="1:12" ht="59.4" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="27">
+      <c r="C52" s="26">
         <v>45981</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="13" t="s">
+      <c r="D52" s="27"/>
+      <c r="E52" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="33" t="s">
+      <c r="F52" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G52" s="32"/>
-      <c r="H52" s="13">
+      <c r="G52" s="25"/>
+      <c r="H52" s="12">
         <v>80</v>
       </c>
-      <c r="I52" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="14" t="s">
+      <c r="I52" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="K52" s="7"/>
+      <c r="K52" s="6"/>
       <c r="L52" s="1"/>
     </row>
     <row r="53" spans="1:12" ht="32.25" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="27">
+      <c r="C53" s="26">
         <v>45981</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="13" t="s">
+      <c r="D53" s="27"/>
+      <c r="E53" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="33" t="s">
+      <c r="F53" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="G53" s="32"/>
-      <c r="H53" s="13">
+      <c r="G53" s="25"/>
+      <c r="H53" s="12">
         <v>15</v>
       </c>
-      <c r="I53" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J53" s="14"/>
-      <c r="K53" s="7"/>
+      <c r="I53" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="13"/>
+      <c r="K53" s="6"/>
       <c r="L53" s="1"/>
     </row>
     <row r="54" spans="1:12" ht="32.25" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="27">
+      <c r="C54" s="26">
         <v>45981</v>
       </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="13" t="s">
+      <c r="D54" s="27"/>
+      <c r="E54" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="33" t="s">
+      <c r="F54" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G54" s="32"/>
-      <c r="H54" s="13">
+      <c r="G54" s="25"/>
+      <c r="H54" s="12">
         <v>40</v>
       </c>
-      <c r="I54" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J54" s="14"/>
-      <c r="K54" s="7"/>
+      <c r="I54" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="13"/>
+      <c r="K54" s="6"/>
       <c r="L54" s="1"/>
     </row>
     <row r="55" spans="1:12" ht="32.25" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="27">
+      <c r="C55" s="26">
         <v>45986</v>
       </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="13" t="s">
+      <c r="D55" s="27"/>
+      <c r="E55" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="F55" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G55" s="32"/>
-      <c r="H55" s="13">
+      <c r="G55" s="25"/>
+      <c r="H55" s="12">
         <v>120</v>
       </c>
-      <c r="I55" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J55" s="14" t="s">
+      <c r="I55" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K55" s="7"/>
+      <c r="K55" s="6"/>
       <c r="L55" s="1"/>
     </row>
     <row r="56" spans="1:12" ht="50.4" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="27">
+      <c r="C56" s="26">
         <v>45987</v>
       </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="13" t="s">
+      <c r="D56" s="27"/>
+      <c r="E56" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="33" t="s">
+      <c r="F56" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G56" s="32"/>
-      <c r="H56" s="13">
+      <c r="G56" s="25"/>
+      <c r="H56" s="12">
         <v>240</v>
       </c>
-      <c r="I56" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J56" s="14" t="s">
+      <c r="I56" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K56" s="7"/>
+      <c r="K56" s="6"/>
       <c r="L56" s="1"/>
     </row>
     <row r="57" spans="1:12" ht="32.25" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="27">
+      <c r="C57" s="26">
         <v>45988</v>
       </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="13" t="s">
+      <c r="D57" s="27"/>
+      <c r="E57" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="33" t="s">
+      <c r="F57" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="G57" s="32"/>
-      <c r="H57" s="13">
+      <c r="G57" s="25"/>
+      <c r="H57" s="12">
         <v>15</v>
       </c>
-      <c r="I57" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="14"/>
-      <c r="K57" s="7"/>
+      <c r="I57" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="13"/>
+      <c r="K57" s="6"/>
       <c r="L57" s="1"/>
     </row>
     <row r="58" spans="1:12" ht="32.25" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="5"/>
-      <c r="C58" s="27">
+      <c r="C58" s="26">
         <v>45988</v>
       </c>
-      <c r="D58" s="28"/>
-      <c r="E58" s="13" t="s">
+      <c r="D58" s="27"/>
+      <c r="E58" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="F58" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G58" s="32"/>
-      <c r="H58" s="13">
+      <c r="G58" s="25"/>
+      <c r="H58" s="12">
         <v>15</v>
       </c>
-      <c r="I58" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="14"/>
-      <c r="K58" s="7"/>
+      <c r="I58" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="13"/>
+      <c r="K58" s="6"/>
       <c r="L58" s="1"/>
     </row>
     <row r="59" spans="1:12" ht="32.25" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="27">
+      <c r="C59" s="26">
         <v>45988</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="13" t="s">
+      <c r="D59" s="27"/>
+      <c r="E59" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F59" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G59" s="32"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="7"/>
+      <c r="F59" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G59" s="25"/>
+      <c r="H59" s="12">
+        <v>40</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="13"/>
+      <c r="K59" s="6"/>
       <c r="L59" s="1"/>
     </row>
     <row r="60" spans="1:12" ht="32.25" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="5"/>
-      <c r="C60" s="27">
+      <c r="C60" s="26">
         <v>45988</v>
       </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="13" t="s">
+      <c r="D60" s="27"/>
+      <c r="E60" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="33" t="s">
+      <c r="F60" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G60" s="32"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="7"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="12">
+        <v>30</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="13"/>
+      <c r="K60" s="6"/>
       <c r="L60" s="1"/>
     </row>
     <row r="61" spans="1:12" ht="32.25" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="5"/>
-      <c r="C61" s="27">
+      <c r="C61" s="26">
         <v>45988</v>
       </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="13" t="s">
+      <c r="D61" s="27"/>
+      <c r="E61" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="33" t="s">
+      <c r="F61" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G61" s="32"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="7"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="12">
+        <v>120</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="K61" s="6"/>
       <c r="L61" s="1"/>
     </row>
     <row r="62" spans="1:12" ht="32.25" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="5"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="7"/>
+      <c r="C62" s="26">
+        <v>45988</v>
+      </c>
+      <c r="D62" s="27"/>
+      <c r="E62" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G62" s="25"/>
+      <c r="H62" s="12">
+        <v>120</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="13"/>
+      <c r="K62" s="6"/>
       <c r="L62" s="1"/>
     </row>
     <row r="63" spans="1:12" ht="32.25" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="7"/>
+      <c r="C63" s="26">
+        <v>45988</v>
+      </c>
+      <c r="D63" s="27"/>
+      <c r="E63" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G63" s="25"/>
+      <c r="H63" s="12">
+        <v>10</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J63" s="13"/>
+      <c r="K63" s="6"/>
       <c r="L63" s="1"/>
     </row>
     <row r="64" spans="1:12" ht="32.25" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="7"/>
+      <c r="C64" s="26">
+        <v>45988</v>
+      </c>
+      <c r="D64" s="27"/>
+      <c r="E64" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G64" s="25"/>
+      <c r="H64" s="12">
+        <v>20</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J64" s="13"/>
+      <c r="K64" s="6"/>
       <c r="L64" s="1"/>
     </row>
     <row r="65" spans="1:12" ht="32.25" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="7"/>
+      <c r="C65" s="26">
+        <v>45988</v>
+      </c>
+      <c r="D65" s="27"/>
+      <c r="E65" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G65" s="25"/>
+      <c r="H65" s="12">
+        <v>30</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J65" s="13"/>
+      <c r="K65" s="6"/>
       <c r="L65" s="1"/>
     </row>
     <row r="66" spans="1:12" ht="32.25" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="5"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="7"/>
+      <c r="C66" s="26">
+        <v>45988</v>
+      </c>
+      <c r="D66" s="27"/>
+      <c r="E66" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G66" s="22"/>
+      <c r="H66" s="12">
+        <v>180</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="13"/>
+      <c r="K66" s="6"/>
       <c r="L66" s="1"/>
     </row>
     <row r="67" spans="1:12" ht="32.25" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="7"/>
+      <c r="C67" s="26">
+        <v>45988</v>
+      </c>
+      <c r="D67" s="27"/>
+      <c r="E67" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G67" s="25"/>
+      <c r="H67" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J67" s="13"/>
+      <c r="K67" s="6"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="1:12" ht="32.25" customHeight="1">
+    <row r="68" spans="1:12" ht="24.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="7"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="16"/>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="1:12" ht="32.25" customHeight="1">
+    <row r="69" spans="1:12" ht="24.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="7"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" spans="1:12" ht="32.25" customHeight="1">
-      <c r="A70" s="1"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="7"/>
+    <row r="70" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A70" s="37"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" spans="1:12" ht="32.25" customHeight="1">
-      <c r="A71" s="1"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="1"/>
-    </row>
-    <row r="72" spans="1:12" ht="32.25" customHeight="1">
-      <c r="A72" s="1"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="1"/>
-    </row>
-    <row r="73" spans="1:12" ht="32.25" customHeight="1">
-      <c r="A73" s="1"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="33"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="1"/>
-    </row>
-    <row r="74" spans="1:12" ht="32.25" customHeight="1">
-      <c r="A74" s="1"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="1"/>
-    </row>
-    <row r="75" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A75" s="1"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A76" s="1"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="1"/>
-    </row>
-    <row r="77" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-    </row>
-    <row r="78" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-    </row>
-    <row r="79" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-    </row>
+    <row r="71" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="72" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="73" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="74" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="75" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="76" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="77" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="78" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="79" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="80" spans="1:12" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="114">
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
+  <mergeCells count="99">
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="C23:D23"/>
@@ -2372,30 +2297,65 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C59:D59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
